--- a/biology/Médecine/Gyrus_angulaire/Gyrus_angulaire.xlsx
+++ b/biology/Médecine/Gyrus_angulaire/Gyrus_angulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus angulaire est un gyrus du lobe pariétal du cortex cérébral. Il est situé à l'intérieur du lobule pariétal inférieur, en position postérieure par rapport au gyrus supramarginal.
 Le gyrus angulaire est la circonvolution centrée sur le rameau ascendant du sillon temporal supérieur. L'extrémité postérieure de ce sillon peut se ramifier en deux branches : une branche postérieure, qui s'étend vers le lobe occipital et s'anastomose avec le sillon occipital antérieur et une branche antérieure, nommée « sillon angulaire », autour duquel s'enroule le gyrus angulaire.
@@ -513,11 +525,13 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus angulaire (GA) semble impliqué dans la partie du cerveau intervenant dans les fonctions complexes du langage telles que l'écriture, la lecture et l'interprétation de ce qui est écrit. Il serait ainsi impliqué dans le traitement sémantique des différentes formes de communication. La mise en évidence de l'activité du GA droit montre la contribution sémantique de l'hémisphère droit.
-Sa position stratégique fait qu'il s'associe aux autres aires de la parole (notamment le gyrus supramarginal) pour former — via des réseaux neuronaux — une région multimodale  réceptrice de stimuli à la fois auditifs, visuels, somato-sensoriels. Par conséquent, le GA constitue un véritable moteur d’interprétation et de traitement des aspects phonologiques et sémantiques du langage[1].
-Cette région a fait l'objectif de plusieurs études. Certaines lui attribuent un rôle dans la perception spatio-temporelle du corps. En effet, une expérience publiée dans Brain (numéro de février 2004) a montré une relation possible entre la stimulation du gyrus angulaire et l'expérience de hors-corps[2].
+Sa position stratégique fait qu'il s'associe aux autres aires de la parole (notamment le gyrus supramarginal) pour former — via des réseaux neuronaux — une région multimodale  réceptrice de stimuli à la fois auditifs, visuels, somato-sensoriels. Par conséquent, le GA constitue un véritable moteur d’interprétation et de traitement des aspects phonologiques et sémantiques du langage.
+Cette région a fait l'objectif de plusieurs études. Certaines lui attribuent un rôle dans la perception spatio-temporelle du corps. En effet, une expérience publiée dans Brain (numéro de février 2004) a montré une relation possible entre la stimulation du gyrus angulaire et l'expérience de hors-corps.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Application clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une atteinte du gyrus angulaire peut donner une aphasie de Wernicke de type II et un syndrome de Gerstmann.
 </t>
